--- a/Tables/table_3.xlsx
+++ b/Tables/table_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashaedmondson/Desktop/Environmental_Data_Analytics_2020/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashaedmondson/Desktop/Environmental_Data_Analytics_2020/FinalProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EE8301-669C-EF43-B4F9-7F753678C0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681F669-9E58-334B-8B1F-F0970DAFF799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="25440" windowHeight="14280" xr2:uid="{495B0172-F908-3442-AD8C-473E2A28476A}"/>
+    <workbookView xWindow="7620" yWindow="1240" windowWidth="25440" windowHeight="14280" xr2:uid="{495B0172-F908-3442-AD8C-473E2A28476A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Column</t>
   </si>
@@ -50,16 +50,10 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Outside Limit</t>
-  </si>
-  <si>
     <t>Date of sample</t>
   </si>
   <si>
     <t xml:space="preserve">The recorded concentration </t>
-  </si>
-  <si>
-    <t>Anaysis notes by USGS if parameter exceeds EPA limit</t>
   </si>
 </sst>
 </file>
@@ -83,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,12 +85,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,19 +429,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111183C5-18E9-1640-A99F-DF4379F308A4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -432,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -440,23 +462,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
